--- a/Dataset/Folds/Fold_5/Excel/55.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="168">
   <si>
     <t>Doi</t>
   </si>
@@ -512,6 +512,62 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,                            Daniel F.%Mackay%null%1,                            Frederick%Ho%null%1,                            Carlos A.%Celis-Morales%null%1,                            Srinivasa Vittal%Katikireddi%null%1,                            Claire L.%Niedzwiedz%null%1,                            Bhautesh D.%Jani%null%1,                            Paul%Welsh%null%1,                            Frances S.%Mair%null%1,                            Stuart R.%Gray%null%1,                            Catherine A.%O’Donnell%null%1,                            Jason MR.%Gill%null%1,                            Naveed%Sattar%null%1,                            Jill P.%Pell%null%1,                          Claire E.%Hastie%null%1,                          Daniel F.%Mackay%null%1,                          Frederick%Ho%null%1,                          Carlos A.%Celis-Morales%null%1,                          Srinivasa Vittal%Katikireddi%null%1,                          Claire L.%Niedzwiedz%null%1,                          Bhautesh D.%Jani%null%1,                          Paul%Welsh%null%0,                          Frances S.%Mair%null%0,                          Stuart R.%Gray%null%1,                          Catherine A.%O’Donnell%null%0,                          Jason MR.%Gill%null%1,                          Naveed%Sattar%null%0,                          Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                            Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                            Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                            Michela%Barichella%NULL%2,                            Michela%Barichella%NULL%0,                            Erica%Cassani%NULL%1,                            Valentina%Ferri%NULL%1,                            Anna Lena%Zecchinelli%NULL%1,                            Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                            Valeria%Avataneo%NULL%2,                            Valeria%Avataneo%NULL%0,                            Alessandra%Manca%NULL%1,                            Jessica%Cusato%NULL%1,                            Amedeo%De Nicolò%NULL%2,                            Amedeo%De Nicolò%NULL%0,                            Renzo%Lucchini%NULL%1,                            Franco%Keller%NULL%1,                            Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                            Simina%Stefanescu%NULL%1,                            Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                             Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                             Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                             Michela%Barichella%NULL%2,                             Michela%Barichella%NULL%0,                             Erica%Cassani%NULL%1,                             Valentina%Ferri%NULL%1,                             Anna Lena%Zecchinelli%NULL%1,                             Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                             Valeria%Avataneo%NULL%2,                             Valeria%Avataneo%NULL%0,                             Alessandra%Manca%NULL%1,                             Jessica%Cusato%NULL%1,                             Amedeo%De Nicolò%NULL%2,                             Amedeo%De Nicolò%NULL%0,                             Renzo%Lucchini%NULL%1,                             Franco%Keller%NULL%1,                             Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                             Simina%Stefanescu%NULL%1,                             Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%0, Emanuele%Cereda%e.cereda@smatteo.pv.it%2, Emanuele%Cereda%e.cereda@smatteo.pv.it%0, Michela%Barichella%NULL%2, Michela%Barichella%NULL%0, Erica%Cassani%NULL%1, Valentina%Ferri%NULL%1, Anna Lena%Zecchinelli%NULL%1, Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) causes coronavirus disease 2019 (COVID-19), with a clinical outcome ranging from mild to severe, including death.
+ To date, it is unclear why some patients develop severe symptoms.
+ Many authors have suggested the involvement of vitamin D in reducing the risk of infections; thus, we retrospectively investigated the 25-hydroxyvitamin D (25(OH)D) concentrations in plasma obtained from a cohort of patients from Switzerland.
+ In this cohort, significantly lower 25(OH)D levels (p = 0.004) were found in PCR-positive for SARS-CoV-2 (median value 11.1 ng/mL) patients compared with negative patients (24.6 ng/mL); this was also confirmed by stratifying patients according to age &amp;gt;70 years.
+ On the basis of this preliminary observation, vitamin D supplementation might be a useful measure to reduce the risk of infection.
+ Randomized controlled trials and large population studies should be conducted to evaluate these recommendations and to confirm our preliminary observation.
+</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%0, Valeria%Avataneo%NULL%2, Valeria%Avataneo%NULL%0, Alessandra%Manca%NULL%1, Jessica%Cusato%NULL%1, Amedeo%De Nicolò%NULL%2, Amedeo%De Nicolò%NULL%0, Renzo%Lucchini%NULL%1, Franco%Keller%NULL%1, Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;WHO declared SARS-CoV-2 a global pandemic.
+ The present aim was to propose an hypothesis that there is a potential association between mean levels of vitamin D in various countries with cases and mortality caused by COVID-19. The mean levels of vitamin D for 20 European countries and morbidity and mortality caused by COVID-19 were acquired.
+ Negative correlations between mean levels of vitamin D (average 56 mmol/L, STDEV 10.61) in each country and the number of COVID-19 cases/1 M (mean 295.95, STDEV 298.7, and mortality/1 M (mean 5.96, STDEV 15.13) were observed.
+ Vitamin D levels are severely low in the aging population especially in Spain, Italy and Switzerland.
+ This is also the most vulnerable group of the population in relation to COVID-19. It should be advisable to perform dedicated studies about vitamin D levels in COVID-19 patients with different degrees of disease severity.
+</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%0, Simina%Stefanescu%NULL%1, Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
   </si>
 </sst>
 </file>
@@ -869,7 +925,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -881,10 +937,10 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3">
@@ -898,10 +954,10 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -913,10 +969,10 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
@@ -930,10 +986,10 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -945,10 +1001,10 @@
         <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
@@ -959,25 +1015,25 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
         <v>51</v>
